--- a/Documents/TopLevelBOM.xlsx
+++ b/Documents/TopLevelBOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
   <si>
     <t>Quantity</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Screw</t>
+  </si>
+  <si>
+    <t>15134-0800</t>
+  </si>
+  <si>
+    <t>538-15134-0800</t>
+  </si>
+  <si>
+    <t>Cherry connection cable</t>
   </si>
 </sst>
 </file>
@@ -741,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,6 +1268,26 @@
         <v>87</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
